--- a/InputData/indst/IFStFS/Indst Fuels Subject to Fuel Shifting.xlsx
+++ b/InputData/indst/IFStFS/Indst Fuels Subject to Fuel Shifting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\IFStFS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\indst\IFStFS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0759892E-1323-4FFF-9486-B98EF23171D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A3EA26-E999-4158-8CD0-D8488CBB5D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31350" yWindow="4560" windowWidth="22830" windowHeight="17235" xr2:uid="{CEBBDD15-8244-44C2-A2EB-EB506D69E415}"/>
+    <workbookView xWindow="24390" yWindow="690" windowWidth="21690" windowHeight="18975" xr2:uid="{CEBBDD15-8244-44C2-A2EB-EB506D69E415}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>IFStFS Industrial Fuels Subject to Fuel Shifting</t>
   </si>
@@ -46,21 +46,6 @@
     <t>None needed</t>
   </si>
   <si>
-    <t>This variable specifies which fuel types are affected by the Industrial</t>
-  </si>
-  <si>
-    <t>Fuel Shifting policy lever.  As this data file is effectively part of a user-set</t>
-  </si>
-  <si>
-    <t>policy, no data source is needed.</t>
-  </si>
-  <si>
-    <t>Generally, fossil fuels should be flagged for shifting, while decarbonized</t>
-  </si>
-  <si>
-    <t>fuels such as electricity and hydrogen should not be flagged for shifting.</t>
-  </si>
-  <si>
     <t>This variable is a Boolean.</t>
   </si>
   <si>
@@ -152,12 +137,6 @@
   </si>
   <si>
     <t>construction 41T43</t>
-  </si>
-  <si>
-    <t>not in an input data file.</t>
-  </si>
-  <si>
-    <t>The "target" fuels shifted to are specified in policy lever settings,</t>
   </si>
   <si>
     <r>
@@ -216,7 +195,25 @@
     <t>LPG propane or butane if</t>
   </si>
   <si>
-    <t>You may or may not wish to shift away from biomass or purchased heat.</t>
+    <t>This variable specifies which fuel types are affected by the industrial electrification and hydrogen shifting</t>
+  </si>
+  <si>
+    <t>policy levers.  As this data file is effectively part of a user-set policy, no data source is needed.</t>
+  </si>
+  <si>
+    <t>The "target" fuels shifted to are based on the policy levers used, not set in an input data file.</t>
+  </si>
+  <si>
+    <t>Electricity and hydrogen must not be flagged in this variable for shifting, or the electrification and hydrogen</t>
+  </si>
+  <si>
+    <t>Generally, fossil fuels should be flagged for shifting, while you may or may not wish to</t>
+  </si>
+  <si>
+    <t>flag biomass and purchased heat for shifting.</t>
+  </si>
+  <si>
+    <t>shifting levers will not work correctly in the model.  Leave electricity and hydrogen set to zero for all industries.</t>
   </si>
 </sst>
 </file>
@@ -248,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +255,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,10 +277,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -287,6 +289,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,7 +607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74327C6-C2CB-4CD6-A944-44D7EC17E747}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,74 +628,69 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>39</v>
+      <c r="A12" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
+      <c r="A18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -713,46 +714,46 @@
     <col min="2" max="11" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>13</v>
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8">
         <v>0</v>
       </c>
       <c r="C2">
@@ -779,15 +780,15 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8">
         <v>0</v>
       </c>
       <c r="C3">
@@ -814,15 +815,15 @@
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8">
         <v>0</v>
       </c>
       <c r="C4">
@@ -849,15 +850,15 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8">
         <v>0</v>
       </c>
       <c r="C5">
@@ -884,15 +885,15 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8">
         <v>0</v>
       </c>
       <c r="C6">
@@ -919,15 +920,15 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8">
         <v>0</v>
       </c>
       <c r="C7">
@@ -954,15 +955,15 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8">
         <v>0</v>
       </c>
       <c r="C8">
@@ -989,15 +990,15 @@
       <c r="J8">
         <v>1</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8">
         <v>0</v>
       </c>
       <c r="C9">
@@ -1024,15 +1025,15 @@
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8">
         <v>0</v>
       </c>
       <c r="C10">
@@ -1059,15 +1060,15 @@
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8">
         <v>0</v>
       </c>
       <c r="C11">
@@ -1094,15 +1095,15 @@
       <c r="J11">
         <v>1</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8">
         <v>0</v>
       </c>
       <c r="C12">
@@ -1129,15 +1130,15 @@
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="B13" s="8">
         <v>0</v>
       </c>
       <c r="C13">
@@ -1164,15 +1165,15 @@
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14">
+        <v>21</v>
+      </c>
+      <c r="B14" s="8">
         <v>0</v>
       </c>
       <c r="C14">
@@ -1199,15 +1200,15 @@
       <c r="J14">
         <v>1</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15">
+        <v>22</v>
+      </c>
+      <c r="B15" s="8">
         <v>0</v>
       </c>
       <c r="C15">
@@ -1234,15 +1235,15 @@
       <c r="J15">
         <v>1</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16">
+        <v>23</v>
+      </c>
+      <c r="B16" s="8">
         <v>0</v>
       </c>
       <c r="C16">
@@ -1269,15 +1270,15 @@
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17">
+        <v>24</v>
+      </c>
+      <c r="B17" s="8">
         <v>0</v>
       </c>
       <c r="C17">
@@ -1304,15 +1305,15 @@
       <c r="J17">
         <v>1</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18">
+        <v>25</v>
+      </c>
+      <c r="B18" s="8">
         <v>0</v>
       </c>
       <c r="C18">
@@ -1339,15 +1340,15 @@
       <c r="J18">
         <v>1</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19">
+        <v>26</v>
+      </c>
+      <c r="B19" s="8">
         <v>0</v>
       </c>
       <c r="C19">
@@ -1374,15 +1375,15 @@
       <c r="J19">
         <v>1</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20">
+        <v>27</v>
+      </c>
+      <c r="B20" s="8">
         <v>0</v>
       </c>
       <c r="C20">
@@ -1409,15 +1410,15 @@
       <c r="J20">
         <v>1</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21">
+        <v>28</v>
+      </c>
+      <c r="B21" s="8">
         <v>0</v>
       </c>
       <c r="C21">
@@ -1444,15 +1445,15 @@
       <c r="J21">
         <v>1</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22">
+        <v>29</v>
+      </c>
+      <c r="B22" s="8">
         <v>0</v>
       </c>
       <c r="C22">
@@ -1479,15 +1480,15 @@
       <c r="J22">
         <v>1</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="B23" s="8">
         <v>0</v>
       </c>
       <c r="C23">
@@ -1514,15 +1515,15 @@
       <c r="J23">
         <v>1</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24">
+        <v>31</v>
+      </c>
+      <c r="B24" s="8">
         <v>0</v>
       </c>
       <c r="C24">
@@ -1549,15 +1550,15 @@
       <c r="J24">
         <v>1</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25">
+        <v>32</v>
+      </c>
+      <c r="B25" s="8">
         <v>0</v>
       </c>
       <c r="C25">
@@ -1584,15 +1585,15 @@
       <c r="J25">
         <v>1</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26">
+        <v>33</v>
+      </c>
+      <c r="B26" s="8">
         <v>0</v>
       </c>
       <c r="C26">
@@ -1619,7 +1620,7 @@
       <c r="J26">
         <v>1</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="8">
         <v>0</v>
       </c>
     </row>
